--- a/target/test-classes/TestNGBasics/seleniumpracticeexcelfile.xlsx
+++ b/target/test-classes/TestNGBasics/seleniumpracticeexcelfile.xlsx
@@ -4,49 +4,57 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="84" windowWidth="16260" windowHeight="5856"/>
+    <workbookView xWindow="0" yWindow="2448" windowWidth="19224" windowHeight="4524"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>admin123</t>
-  </si>
-  <si>
-    <t>hr</t>
-  </si>
-  <si>
-    <t>hr123</t>
-  </si>
-  <si>
     <t>abhi</t>
   </si>
   <si>
     <t>abhi123</t>
+  </si>
+  <si>
+    <t>mngr507140</t>
+  </si>
+  <si>
+    <t>YmAtyzy</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -69,8 +77,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,37 +384,42 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
